--- a/Lesson_8/statistics.xlsx
+++ b/Lesson_8/statistics.xlsx
@@ -475,19 +475,19 @@
         <v>4.47378158569336e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>225342</v>
+        <v>220</v>
       </c>
       <c r="D2" t="n">
         <v>0.0004546284675598144</v>
       </c>
       <c r="E2" t="n">
-        <v>2238900</v>
+        <v>2186</v>
       </c>
       <c r="F2" t="n">
         <v>0.00452832555770874</v>
       </c>
       <c r="G2" t="n">
-        <v>22316199</v>
+        <v>21793</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         <v>1.607704162597656e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>333981</v>
+        <v>326</v>
       </c>
       <c r="D3" t="n">
         <v>0.0001622843742370605</v>
       </c>
       <c r="E3" t="n">
-        <v>3327366</v>
+        <v>3249</v>
       </c>
       <c r="F3" t="n">
         <v>0.002166520595550537</v>
       </c>
       <c r="G3" t="n">
-        <v>33189800</v>
+        <v>32411</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         <v>1.212358474731445e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>272067</v>
+        <v>265</v>
       </c>
       <c r="D4" t="n">
         <v>1.175498962402344e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2709172</v>
+        <v>2645</v>
       </c>
       <c r="F4" t="n">
         <v>0.0002623920440673828</v>
       </c>
       <c r="G4" t="n">
-        <v>27024146</v>
+        <v>26390</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +550,19 @@
         <v>3.304719924926758e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>369841</v>
+        <v>361</v>
       </c>
       <c r="D5" t="n">
         <v>4.091835021972656e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>3574566</v>
+        <v>3490</v>
       </c>
       <c r="F5" t="n">
         <v>0.0009576411247253418</v>
       </c>
       <c r="G5" t="n">
-        <v>35532976</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="6">
@@ -575,13 +575,13 @@
         <v>0.0004501287937164307</v>
       </c>
       <c r="C6" t="n">
-        <v>2569095</v>
+        <v>2508</v>
       </c>
       <c r="D6" t="n">
         <v>0.09299694919586182</v>
       </c>
       <c r="E6" t="n">
-        <v>25862965</v>
+        <v>25256</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -600,19 +600,19 @@
         <v>8.333897590637207e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>246085</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
         <v>0.0009765002727508545</v>
       </c>
       <c r="E7" t="n">
-        <v>2448611</v>
+        <v>2391</v>
       </c>
       <c r="F7" t="n">
         <v>0.01129997777938843</v>
       </c>
       <c r="G7" t="n">
-        <v>24404673</v>
+        <v>23832</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         <v>6.20131492614746e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>579271</v>
+        <v>565</v>
       </c>
       <c r="D8" t="n">
         <v>0.0007258582115173339</v>
       </c>
       <c r="E8" t="n">
-        <v>5772504</v>
+        <v>5637</v>
       </c>
       <c r="F8" t="n">
         <v>0.006222845315933228</v>
       </c>
       <c r="G8" t="n">
-        <v>57571178</v>
+        <v>56221</v>
       </c>
     </row>
     <row r="9">
@@ -650,19 +650,19 @@
         <v>0.0006424551010131836</v>
       </c>
       <c r="C9" t="n">
-        <v>332191</v>
+        <v>324</v>
       </c>
       <c r="D9" t="n">
         <v>0.006412942886352539</v>
       </c>
       <c r="E9" t="n">
-        <v>3309662</v>
+        <v>3232</v>
       </c>
       <c r="F9" t="n">
         <v>0.07232793807983398</v>
       </c>
       <c r="G9" t="n">
-        <v>33010860</v>
+        <v>32237</v>
       </c>
     </row>
   </sheetData>

--- a/Lesson_8/statistics.xlsx
+++ b/Lesson_8/statistics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.47378158569336e-05</v>
+        <v>0.045</v>
       </c>
       <c r="C2" t="n">
-        <v>225342</v>
+        <v>220</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004546284675598144</v>
+        <v>0.455</v>
       </c>
       <c r="E2" t="n">
-        <v>2238900</v>
+        <v>2186</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00452832555770874</v>
+        <v>4.528</v>
       </c>
       <c r="G2" t="n">
-        <v>22316199</v>
+        <v>21793</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.607704162597656e-05</v>
+        <v>0.016</v>
       </c>
       <c r="C3" t="n">
-        <v>333981</v>
+        <v>326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001622843742370605</v>
+        <v>0.162</v>
       </c>
       <c r="E3" t="n">
-        <v>3327366</v>
+        <v>3249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002166520595550537</v>
+        <v>2.167</v>
       </c>
       <c r="G3" t="n">
-        <v>33189800</v>
+        <v>32411</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.212358474731445e-06</v>
+        <v>0.001</v>
       </c>
       <c r="C4" t="n">
-        <v>272067</v>
+        <v>265</v>
       </c>
       <c r="D4" t="n">
-        <v>1.175498962402344e-05</v>
+        <v>0.012</v>
       </c>
       <c r="E4" t="n">
-        <v>2709172</v>
+        <v>2645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002623920440673828</v>
+        <v>0.262</v>
       </c>
       <c r="G4" t="n">
-        <v>27024146</v>
+        <v>26390</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.304719924926758e-06</v>
+        <v>0.003</v>
       </c>
       <c r="C5" t="n">
-        <v>369841</v>
+        <v>361</v>
       </c>
       <c r="D5" t="n">
-        <v>4.091835021972656e-05</v>
+        <v>0.041</v>
       </c>
       <c r="E5" t="n">
-        <v>3574566</v>
+        <v>3490</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009576411247253418</v>
+        <v>0.958</v>
       </c>
       <c r="G5" t="n">
-        <v>35532976</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="6">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004501287937164307</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>2569095</v>
+        <v>2508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09299694919586182</v>
+        <v>92.997</v>
       </c>
       <c r="E6" t="n">
-        <v>25862965</v>
+        <v>25256</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.333897590637207e-05</v>
+        <v>0.083</v>
       </c>
       <c r="C7" t="n">
-        <v>246085</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009765002727508545</v>
+        <v>0.977</v>
       </c>
       <c r="E7" t="n">
-        <v>2448611</v>
+        <v>2391</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01129997777938843</v>
+        <v>11.3</v>
       </c>
       <c r="G7" t="n">
-        <v>24404673</v>
+        <v>23832</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.20131492614746e-05</v>
+        <v>0.062</v>
       </c>
       <c r="C8" t="n">
-        <v>579271</v>
+        <v>565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007258582115173339</v>
+        <v>0.726</v>
       </c>
       <c r="E8" t="n">
-        <v>5772504</v>
+        <v>5637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006222845315933228</v>
+        <v>6.223</v>
       </c>
       <c r="G8" t="n">
-        <v>57571178</v>
+        <v>56221</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006424551010131836</v>
+        <v>0.642</v>
       </c>
       <c r="C9" t="n">
-        <v>332191</v>
+        <v>324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006412942886352539</v>
+        <v>6.413</v>
       </c>
       <c r="E9" t="n">
-        <v>3309662</v>
+        <v>3232</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07232793807983398</v>
+        <v>72.328</v>
       </c>
       <c r="G9" t="n">
-        <v>33010860</v>
+        <v>32237</v>
       </c>
     </row>
   </sheetData>
